--- a/attachments/example.xlsx
+++ b/attachments/example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\admin\python_automate\attachments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CACB94-FCFC-4E75-8055-4FF8A0D05CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +45,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,6 +59,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,18 +90,18 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,12 +109,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -143,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +192,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,19 +436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G1" sqref="G1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>42099.565300925926</v>
       </c>
@@ -408,8 +458,17 @@
       <c r="C1" s="3">
         <v>73</v>
       </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42099.153738425928</v>
       </c>
@@ -419,8 +478,17 @@
       <c r="C2" s="3">
         <v>85</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42100.532534722224</v>
       </c>
@@ -430,8 +498,17 @@
       <c r="C3" s="3">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42102.374803240738</v>
       </c>
@@ -441,8 +518,17 @@
       <c r="C4" s="3">
         <v>52</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42104.088194444441</v>
       </c>
@@ -452,8 +538,17 @@
       <c r="C5" s="3">
         <v>152</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42104.757372685184</v>
       </c>
@@ -463,8 +558,17 @@
       <c r="C6" s="3">
         <v>23</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42104.111643518518</v>
       </c>
@@ -474,33 +578,45 @@
       <c r="C7" s="3">
         <v>98</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/attachments/example.xlsx
+++ b/attachments/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\admin\python_automate\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CACB94-FCFC-4E75-8055-4FF8A0D05CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD848BF-BF72-4746-ADC2-0585B4D480B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
